--- a/biology/Microbiologie/Louis_Édouard_Gourdan_de_Fromentel/Louis_Édouard_Gourdan_de_Fromentel.xlsx
+++ b/biology/Microbiologie/Louis_Édouard_Gourdan_de_Fromentel/Louis_Édouard_Gourdan_de_Fromentel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_%C3%89douard_Gourdan_de_Fromentel</t>
+          <t>Louis_Édouard_Gourdan_de_Fromentel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Édouard Gourdan de Fromentel, né le 29 août 1824 à Champlitte (Haute-Saône) et mort le 6 avril 1901 à Bouhans-et-Feurg (Haute-Saône), est un médecin et paléontologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_%C3%89douard_Gourdan_de_Fromentel</t>
+          <t>Louis_Édouard_Gourdan_de_Fromentel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1824 à Champlitte (Haute-Saône), Louis Édouard Gourdan de Fromentel est le fils d'un ancien capitaine d'infanterie au 94e régiment de ligne. Il commence ses études médicales à Strasbourg où il est préparateur de physique et de chimie à l'école de médecine. Il les poursuit à Paris où il est interne au Val-de-Grâce.
-Reçu docteur en médecine en 1849[1], il épouse Clémence Crestin le 9 décembre 1856 à Voncourt (Haute-Marne). Il s'établit à Gray (Haute-Saône) et se consacre alors à la paléontologie. À la mort d'Alcide Dessalines d'Orbigny (1802-1857), il est parmi les fondateurs du Comité de paléontogie française et entretient de proches relations de travail avec d'autres paléontologues renommés tel que Henry Testot-Ferry (1826-1869), mais également avec des géologues (Louis Pillet), les disciplines étant très liées.
+Reçu docteur en médecine en 1849, il épouse Clémence Crestin le 9 décembre 1856 à Voncourt (Haute-Marne). Il s'établit à Gray (Haute-Saône) et se consacre alors à la paléontologie. À la mort d'Alcide Dessalines d'Orbigny (1802-1857), il est parmi les fondateurs du Comité de paléontogie française et entretient de proches relations de travail avec d'autres paléontologues renommés tel que Henry Testot-Ferry (1826-1869), mais également avec des géologues (Louis Pillet), les disciplines étant très liées.
 Ainsi, il participe ardemment à l'écriture des 16 derniers volumes de la Paléontologie française jusqu'à sa mort en 1901. Cet ensemble (25 volumes au total) reste fondamental et toujours largement utilisé aujourd'hui par les paléontologues du monde entier.
 Tout en faisant partie de plusieurs sociétés savantes comme la société géologique de France ou la société d'émulation du Doubs, il exerce comme médecin des épidémies et médecin des prisons. Il est vice-président du conseil d'hygiène. Républicain, il siège à la délégation cantonale et au conseil d'arrondissement.
-Il reçoit les distinctions de chevalier de la Légion d'honneur (1874)[2], d'officier d'académie (1875) et de chevalier du Mérite agricole. Il est élu le 16 juillet 1874 à l'Académie des sciences, belles-lettres et arts de Savoie, avec pour titre académique Effectif (titulaire)[3].
+Il reçoit les distinctions de chevalier de la Légion d'honneur (1874), d'officier d'académie (1875) et de chevalier du Mérite agricole. Il est élu le 16 juillet 1874 à l'Académie des sciences, belles-lettres et arts de Savoie, avec pour titre académique Effectif (titulaire).
 Il meurt à Bouhans-et-Feurg (Haute-Saône) le 6 avril 1901 où il est enterré.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_%C3%89douard_Gourdan_de_Fromentel</t>
+          <t>Louis_Édouard_Gourdan_de_Fromentel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur
  Chevalier de l'ordre des Palmes académiques
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Louis_%C3%89douard_Gourdan_de_Fromentel</t>
+          <t>Louis_Édouard_Gourdan_de_Fromentel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1841 : Terrains crétacés (avec Alcide d'Orbigny et Gustave Cotteau).
 1849 : sa thèse : Essai sur le suc nourricier et ses modifications pathologiques.
